--- a/biology/Médecine/Bertrand_Samuel-Lajeunesse/Bertrand_Samuel-Lajeunesse.xlsx
+++ b/biology/Médecine/Bertrand_Samuel-Lajeunesse/Bertrand_Samuel-Lajeunesse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bertrand Samuel-Lajeunesse (1935-2009) est un psychiatre français.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Élève de Jean Delay, nommé professeur sur une chaire de neuropsychiatrie en 1968, professeur émérite à l'Université Paris-Descartes[1]), il dirige la Clinique des Maladies mentales et de l'encéphale à l'hôpital Saint Anne jusqu'en 2003[2].
-Il est l'auteur de publications sur les troubles du comportement alimentaire[3], la thérapie cognitivo-comportementale[4], le psychodrame[5], et l'art-thérapie[6],[2].
-Il est aussi l'auteur d'un livre pour enfants, Un mercredi avec Mamie-Gâteau[7], illustré par Francine de Boeck.
-Marié une première fois à la Laure Besançon, dermatologue, naît Julien Samuel-Lajeunesse[8] en 1967, puis d'une deuxième union naît Emmanuel Kreis[9] en 1977. D'un troisième mariage avec Emmanuelle Reynaud[10] naît Thomas Samuel-Lajeunesse en 2005.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élève de Jean Delay, nommé professeur sur une chaire de neuropsychiatrie en 1968, professeur émérite à l'Université Paris-Descartes), il dirige la Clinique des Maladies mentales et de l'encéphale à l'hôpital Saint Anne jusqu'en 2003.
+Il est l'auteur de publications sur les troubles du comportement alimentaire, la thérapie cognitivo-comportementale, le psychodrame, et l'art-thérapie,.
+Il est aussi l'auteur d'un livre pour enfants, Un mercredi avec Mamie-Gâteau, illustré par Francine de Boeck.
+Marié une première fois à la Laure Besançon, dermatologue, naît Julien Samuel-Lajeunesse en 1967, puis d'une deuxième union naît Emmanuel Kreis en 1977. D'un troisième mariage avec Emmanuelle Reynaud naît Thomas Samuel-Lajeunesse en 2005.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1966 : Prix de la Fondation Dreyfus et prix Magnan de l’Académie nationale de médecine pour son travail de thèse[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1966 : Prix de la Fondation Dreyfus et prix Magnan de l’Académie nationale de médecine pour son travail de thèse.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le Pronostic de l'anorexie mentale, 1966
 (coll.) Le psychodrame : une approche psychanalytique, Paris : Dunod, 1972
